--- a/factores.xlsx
+++ b/factores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/germanlopezpineda/Documents/Python/CargaAdmisible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175F79CD-D075-FA4C-8CAE-B083F954951A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD967B48-1D82-6240-A7C1-09268ECB403D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18320" yWindow="3560" windowWidth="27200" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18000" yWindow="4200" windowWidth="27200" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CargaAdmisible" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>B=</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>prof plano cimentación=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inclinación </t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>tq</t>
+  </si>
+  <si>
+    <t>tg</t>
   </si>
 </sst>
 </file>
@@ -147,10 +162,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60474B96-411A-4D7E-8591-E087742093E8}">
-  <dimension ref="A3:G32"/>
+  <dimension ref="A3:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -442,7 +463,7 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -460,7 +481,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -471,7 +492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -493,7 +514,7 @@
         <v>0.3490658503988659</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -504,7 +525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -515,7 +536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -526,7 +547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -537,7 +558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -549,12 +570,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <f>RADIANS(B14)</f>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <f>RADIANS(J15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <f>EXP(-2*K15*TAN($G$5))</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <f>1-SIN(2*K15)</f>
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <f>1-SIN(2*K15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -562,8 +632,27 @@
         <f>(B17-1)/TAN(G5)</f>
         <v>14.834711777931204</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J16" s="4">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" ref="K16:K24" si="0">RADIANS(J16)</f>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" ref="L16:L24" si="1">EXP(-2*K16*TAN($G$5))</f>
+        <v>0.93845085512341997</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" ref="M16:M23" si="2">1-SIN(2*K16)</f>
+        <v>0.8263518223330697</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" ref="N16:N23" si="3">1-SIN(2*K16)</f>
+        <v>0.8263518223330697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -571,8 +660,27 @@
         <f>((1+SIN(G5))/(1-SIN(G5)))*EXP(PI()*TAN(G5))</f>
         <v>6.3993935210852113</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J17" s="4">
+        <v>10</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.88069000748187809</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.65797985667433134</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.65797985667433134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -580,8 +688,48 @@
         <f>1.5*(B17-1)*TAN(G5)</f>
         <v>2.9478277871471992</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J18" s="4">
+        <v>15</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.26179938779914941</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8264842906200196</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J19" s="4">
+        <v>20</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.77561488927843047</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.35721239031346075</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="3"/>
+        <v>0.35721239031346075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -589,8 +737,27 @@
         <f>1+0.2*B3/B4</f>
         <v>1.1599999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J20" s="4">
+        <v>25</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.72787645608979978</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23395555688102199</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.23395555688102199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -598,8 +765,27 @@
         <f>1+1.5*TAN(RADIANS(B5))*B3/B4</f>
         <v>1.4367642811194428</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J21" s="4">
+        <v>30</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.68307628264167697</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1339745962155614</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1339745962155614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -607,8 +793,69 @@
         <f>1-0.3*B3/B4</f>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J22" s="4">
+        <v>35</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.64103352155960869</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="2"/>
+        <v>6.0307379214091683E-2</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="3"/>
+        <v>6.0307379214091683E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J23" s="4">
+        <v>40</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.60157845647039199</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="2"/>
+        <v>1.519224698779198E-2</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="3"/>
+        <v>1.519224698779198E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J24" s="4">
+        <v>45</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.56455181689846634</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" ref="M24" si="4">1-SIN(2*K24)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" ref="N24" si="5">1-SIN(2*K24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -620,7 +867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -632,7 +879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
     </row>
   </sheetData>
